--- a/biology/Microbiologie/Burkholderiales/Burkholderiales.xlsx
+++ b/biology/Microbiologie/Burkholderiales/Burkholderiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les burkholdériales (Burkholderiales) sont un ordre de protéobacteries.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet ordre comprend diverses bactéries pathogènes, parmi lesquels des espèces de Burkholderia et de Bordetella. On trouve aussi des Oxalobacter et des genres apparentés, qui ont la particularité d'utiliser l'acide oxalique comme source de carbone.
 Quelques-uns des genres et espèces appartenant aux Burkhoderiales : Burkholderia, Bordetella, Leptothrix dont Leptothrix cholodnii, Leptothrix discophora, Leptothrix mobilis, Leptothrix vaginalis, Sphaerotilus dont Sphaerotilus natans et Ideonella dont Ideonella sakaiensis
@@ -543,15 +557,17 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon List of Bacterial Names with Standing in Nomenclature[1] et Catalogue of Life                                   (18 avril 2018)[2]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon List of Bacterial Names with Standing in Nomenclature et Catalogue of Life                                   (18 avril 2018):
 famille Alcaligenaceae
 famille Burkholderiaceae
 famille Comamonadaceae
 famille Oxalobacteraceae
 famille Sutterellaceae
-Selon BioLib                    (18 avril 2018)[3] :
+Selon BioLib                    (18 avril 2018) :
 famille Alcaligenaceae De Ley, Segers, Kersters, Mannheim &amp; Lievens, 1986
 famille Burkholderiaceae Garrity, Bell &amp; Lilburn, 2006
 famille Comamonadaceae Willems, De Ley, Gillis, Kersters, 1991
@@ -570,7 +586,7 @@
 genre Thiobacter Hirayama, Takai, Inagaki, Nealson &amp; Horikoshi, 2005
 genre Thiomonas Moreira &amp; Amils, 1997
 genre Xylophilus Willems, Gillis, Kersters, van den Broecke &amp; Fe Ley, 1987
-Selon ITIS      (18 avril 2018)[4] :
+Selon ITIS      (18 avril 2018) :
 famille Alcaligenaceae De Ley &amp; al., 1986
 famille Burkholderiaceae Garrity &amp; al., 2006
 famille Comamonadaceae Willems &amp; al., 1991
@@ -592,14 +608,14 @@
 genre Thiobacter Hirayama &amp; al., 2005
 genre Thiomonas Moreira &amp; Amils, 1997 emend. Kelly &amp; al., 2007
 genre Xylophilus Willems &amp; al., 1987
-Selon NCBI  (18 avril 2018)[5] :
+Selon NCBI  (18 avril 2018) :
 famille Alcaligenaceae De Ley &amp; al. 1986
 famille Burkholderiaceae Garrity &amp; al. 2006
 famille Comamonadaceae Willems &amp; al. 1991
 famille Oxalobacteraceae Garrity &amp; al. 2006
 famille Sutterellaceae Morotomi &amp; al. 2011
 famille mealybug endosymbionts
-Selon World Register of Marine Species                               (18 avril 2018)[6] :
+Selon World Register of Marine Species                               (18 avril 2018) :
 famille Alcaligenaceae
 famille Burkholderiaceae
 famille Comamonadaceae
